--- a/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,57</t>
+          <t>51,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,16</t>
+          <t>50,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>51,12</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,68; 52,28</t>
+          <t>50,89; 52,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,82; 51,16</t>
+          <t>48,8; 51,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,14; 51,54</t>
+          <t>50,35; 51,75</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,33</t>
+          <t>49,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,81</t>
+          <t>50,52</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,59</t>
+          <t>50,04</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,49; 50,1</t>
+          <t>48,65; 50,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,05; 50,56</t>
+          <t>49,54; 52,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 50,09</t>
+          <t>49,38; 51,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,54</t>
+          <t>48,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,12</t>
+          <t>49,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,84</t>
+          <t>48,95</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,69; 49,15</t>
+          <t>47,87; 49,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,59; 49,59</t>
+          <t>48,71; 49,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,4; 49,25</t>
+          <t>48,55; 49,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>49,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,12</t>
+          <t>48,46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>48,27</t>
+          <t>49,31</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,61; 49,89</t>
+          <t>47,86; 52,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,66; 48,67</t>
+          <t>47,89; 49,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,79; 49,09</t>
+          <t>48,13; 51,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,68</t>
+          <t>46,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,25</t>
+          <t>46,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>46,47</t>
+          <t>46,63</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,96; 47,38</t>
+          <t>46,17; 47,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,57; 46,8</t>
+          <t>45,71; 46,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,99; 46,91</t>
+          <t>46,18; 47,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>44,98</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,44</t>
+          <t>47,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,87</t>
+          <t>46,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,25</t>
+          <t>46,87</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>43,62</t>
+          <t>44,77</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,3</t>
+          <t>46,4</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,21</t>
+          <t>44,59</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>45,26</t>
+          <t>47,05</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>44,2</t>
+          <t>45,2</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>46,36</t>
+          <t>46,77</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>44,93</t>
+          <t>45,59</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>45,69</t>
+          <t>46,96</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,17; 45,73</t>
+          <t>44,7; 46,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,66; 47,12</t>
+          <t>46,23; 47,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,28; 46,49</t>
+          <t>45,97; 47,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,63; 46,75</t>
+          <t>46,11; 47,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,83; 44,39</t>
+          <t>43,78; 45,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,71; 46,93</t>
+          <t>45,57; 47,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,59; 44,84</t>
+          <t>43,72; 45,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,75; 45,77</t>
+          <t>46,43; 47,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,64; 44,75</t>
+          <t>44,48; 45,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,87; 46,81</t>
+          <t>46,11; 47,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,48; 45,35</t>
+          <t>45,02; 46,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,25; 46,04</t>
+          <t>46,5; 47,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>47,61</t>
+          <t>43,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>48,41</t>
+          <t>45,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46,89</t>
+          <t>44,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,16</t>
+          <t>45,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,52</t>
+          <t>42,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,6</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,48</t>
+          <t>43,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,71</t>
+          <t>43,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,06</t>
+          <t>43,04</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48,0</t>
+          <t>45,94</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>46,68</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>47,92</t>
+          <t>44,63</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>42,58; 45,21</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>44,34; 46,69</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43,8; 45,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44,74; 46,52</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41,18; 43,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45,34; 46,95</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42,78; 44,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43,15; 44,5</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>42,01; 43,93</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45,22; 46,63</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43,46; 44,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>44,04; 45,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47,61</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48,41</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>46,89</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>48,76</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>46,52</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>47,6</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46,48</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48,0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47,06</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>48,0</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>46,68</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>47,31; 47,89</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>48,17; 48,67</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>46,66; 47,13</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>47,81; 48,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48,16; 50,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>46,23; 46,84</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>47,35; 47,83</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>46,24; 46,75</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>47,46; 47,96</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>47,71; 48,49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>46,84; 47,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>47,81; 48,17</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>46,51; 46,86</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>47,71; 48,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>48,05; 49,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,86; 49,97</t>
+          <t>48,83; 49,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,38; 50,53</t>
+          <t>49,4; 50,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,96; 49,06</t>
+          <t>47,95; 49,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,89; 52,47</t>
+          <t>50,93; 52,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,09; 49,42</t>
+          <t>48,07; 49,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,07; 50,22</t>
+          <t>49,09; 50,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,22; 49,29</t>
+          <t>48,15; 49,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,8; 51,3</t>
+          <t>48,94; 51,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,63; 49,48</t>
+          <t>48,65; 49,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,45; 50,22</t>
+          <t>49,4; 50,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,27; 49,01</t>
+          <t>48,23; 49,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,35; 51,75</t>
+          <t>50,28; 51,71</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,5; 49,5</t>
+          <t>48,5; 49,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,9; 49,88</t>
+          <t>48,92; 49,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,27; 48,25</t>
+          <t>47,24; 48,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,65; 50,23</t>
+          <t>48,62; 50,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,45; 48,79</t>
+          <t>47,43; 48,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,92; 49,01</t>
+          <t>47,87; 49,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,69; 48,62</t>
+          <t>47,66; 48,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,54; 52,22</t>
+          <t>49,54; 52,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 49,01</t>
+          <t>48,22; 49,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>48,58; 49,31</t>
+          <t>48,55; 49,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,58; 48,28</t>
+          <t>47,6; 48,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,38; 51,19</t>
+          <t>49,43; 51,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,73; 48,08</t>
+          <t>46,78; 48,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,54; 48,75</t>
+          <t>47,6; 48,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,91; 47,91</t>
+          <t>46,95; 47,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,87; 49,27</t>
+          <t>47,99; 49,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,91; 48,08</t>
+          <t>46,92; 48,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,48; 48,54</t>
+          <t>47,46; 48,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,11; 48,16</t>
+          <t>47,02; 48,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,71; 49,67</t>
+          <t>48,7; 49,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,01; 47,91</t>
+          <t>47,03; 47,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,69; 48,5</t>
+          <t>47,69; 48,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,17; 47,87</t>
+          <t>47,15; 47,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,55; 49,37</t>
+          <t>48,51; 49,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,6; 47,96</t>
+          <t>46,57; 47,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,41; 48,72</t>
+          <t>47,39; 48,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,17; 46,46</t>
+          <t>45,2; 46,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,86; 52,69</t>
+          <t>47,82; 52,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,51; 46,95</t>
+          <t>45,45; 47,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,29; 47,54</t>
+          <t>46,24; 47,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,64; 46,76</t>
+          <t>45,65; 46,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,89; 49,49</t>
+          <t>47,89; 49,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,22; 47,28</t>
+          <t>46,24; 47,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,05; 47,9</t>
+          <t>47,08; 47,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,56; 46,43</t>
+          <t>45,59; 46,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,13; 51,6</t>
+          <t>48,09; 51,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,81; 47,54</t>
+          <t>45,78; 47,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,78; 49,22</t>
+          <t>47,77; 49,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,46; 46,84</t>
+          <t>45,46; 46,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,17; 47,54</t>
+          <t>46,09; 47,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,84</t>
+          <t>44,18; 45,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,95; 47,54</t>
+          <t>46,0; 47,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 45,86</t>
+          <t>44,37; 45,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,71; 46,94</t>
+          <t>45,82; 46,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,15; 46,38</t>
+          <t>45,2; 46,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,03; 48,16</t>
+          <t>47,06; 48,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,15; 46,18</t>
+          <t>45,16; 46,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,18; 47,07</t>
+          <t>46,17; 47,06</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,7; 46,57</t>
+          <t>44,67; 46,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,23; 47,99</t>
+          <t>46,13; 47,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,53</t>
+          <t>45,85; 47,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,11; 47,53</t>
+          <t>46,09; 47,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,78; 45,64</t>
+          <t>43,77; 45,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,57; 47,19</t>
+          <t>45,54; 47,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,72; 45,4</t>
+          <t>43,79; 45,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,43; 47,66</t>
+          <t>46,41; 47,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,48; 45,88</t>
+          <t>44,49; 45,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,11; 47,33</t>
+          <t>46,18; 47,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>45,02; 46,12</t>
+          <t>45,06; 46,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>46,5; 47,48</t>
+          <t>46,48; 47,46</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,58; 45,21</t>
+          <t>42,67; 45,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,34; 46,69</t>
+          <t>44,27; 46,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,8; 45,65</t>
+          <t>43,84; 45,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,74; 46,52</t>
+          <t>44,83; 46,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,18; 43,57</t>
+          <t>41,16; 43,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,34; 46,95</t>
+          <t>45,31; 47,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,78; 44,79</t>
+          <t>42,74; 44,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,15; 44,5</t>
+          <t>43,14; 44,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,01; 43,93</t>
+          <t>42,18; 43,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,22; 46,63</t>
+          <t>45,22; 46,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43,46; 44,84</t>
+          <t>43,53; 44,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,04; 45,12</t>
+          <t>44,08; 45,18</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,31; 47,89</t>
+          <t>47,33; 47,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,17; 48,67</t>
+          <t>48,13; 48,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,66; 47,13</t>
+          <t>46,64; 47,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>48,16; 50,1</t>
+          <t>48,17; 50,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>46,23; 46,84</t>
+          <t>46,21; 46,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,35; 47,83</t>
+          <t>47,36; 47,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,24; 46,75</t>
+          <t>46,24; 46,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,49</t>
+          <t>47,69; 48,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,84; 47,25</t>
+          <t>46,84; 47,26</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47,81; 48,17</t>
+          <t>47,83; 48,18</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>46,51; 46,86</t>
+          <t>46,49; 46,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>48,05; 49,37</t>
+          <t>48,03; 49,33</t>
         </is>
       </c>
     </row>
